--- a/biology/Botanique/Indigofera_dendroides/Indigofera_dendroides.xlsx
+++ b/biology/Botanique/Indigofera_dendroides/Indigofera_dendroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indigofera dendroides est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante annuelle érigée, frêle à buissonnante, parfois ligneuse[2]. Sa hauteur est comprise entre 20 et 150 cm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle érigée, frêle à buissonnante, parfois ligneuse. Sa hauteur est comprise entre 20 et 150 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est très répandue en Afrique, au Sénégal, au sud de la Mauritanie jusqu'au Soudan et au Kenya, vers le Sud, en Angola, en Zambie, au Zimbabwe, au Mozambique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est très répandue en Afrique, au Sénégal, au sud de la Mauritanie jusqu'au Soudan et au Kenya, vers le Sud, en Angola, en Zambie, au Zimbabwe, au Mozambique.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans les savanes arbustives et herbeuses, sur des terrains perturbés et des inselbergs[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans les savanes arbustives et herbeuses, sur des terrains perturbés et des inselbergs.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est utilisée comme fourrage pour le bétail[2] et récoltée à l'état sauvage à des fins médicinales, notamment pour traiter le pian[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est utilisée comme fourrage pour le bétail et récoltée à l'état sauvage à des fins médicinales, notamment pour traiter le pian.
 </t>
         </is>
       </c>
